--- a/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_era/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_era/expected_result.xlsx
@@ -503,16 +503,16 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
       <c r="D2" s="6" t="inlineStr"/>
       <c r="E2" s="6" t="inlineStr"/>
       <c r="F2" s="6" t="inlineStr"/>
       <c r="G2" s="6" t="n">
-        <v>723912.76</v>
+        <v>686088.58</v>
       </c>
     </row>
     <row r="3">
@@ -524,12 +524,12 @@
       <c r="B3" s="6" t="inlineStr"/>
       <c r="C3" s="6" t="inlineStr"/>
       <c r="D3" s="6" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
       <c r="E3" s="6" t="inlineStr"/>
       <c r="F3" s="6" t="inlineStr"/>
       <c r="G3" s="6" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
       <c r="C4" s="6" t="inlineStr"/>
       <c r="D4" s="6" t="inlineStr"/>
       <c r="E4" s="6" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>814215.8</v>
+        <v>698266.9300000001</v>
       </c>
     </row>
     <row r="5">
@@ -558,22 +558,22 @@
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
